--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,23 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pingpon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/agenda.xlsx
+++ b/agenda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,85 +453,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>"Agregar reunión el</t>
+          <t>lectura</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>15:30</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>reunión el</t>
+          <t>reuinon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2026-01-12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>reunion</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-11</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>una reunion</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-10-31</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>pingpon</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:00</t>
+          <t>04:01</t>
         </is>
       </c>
     </row>
